--- a/Revit二次开发笔记.xlsx
+++ b/Revit二次开发笔记.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\githubRep2\Gitee500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B98FA7-836D-40E3-ADF6-52A1BF28C9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DAE097-518F-4878-BFB6-7B267B3DFF4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22224" windowHeight="13176" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01任务列表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="1527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="1528">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -12535,6 +12535,10 @@
   </si>
   <si>
     <t>:Computes the geometric representation of the instance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑、结构、机电三个模块，原来真的是分开的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13177,74 +13181,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -13256,6 +13192,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>112594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>748958</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>53887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB01010-82B8-40FA-AEA0-EC6CF375AAFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622789" y="47459171"/>
+          <a:ext cx="2882997" cy="2802310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13264,7 +13249,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -13522,7 +13507,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="D46" sqref="D46:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13925,10 +13910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M271"/>
+  <dimension ref="A1:M293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I269" sqref="I269"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E298" sqref="E298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15501,6 +15486,21 @@
         <v>1520</v>
       </c>
     </row>
+    <row r="291" spans="2:9">
+      <c r="B291" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9">
+      <c r="B293" s="34"/>
+      <c r="C293" s="34"/>
+      <c r="D293" s="34"/>
+      <c r="E293" s="34"/>
+      <c r="F293" s="34"/>
+      <c r="G293" s="34"/>
+      <c r="H293" s="34"/>
+      <c r="I293" s="34"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -15515,6 +15515,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -15522,8 +15523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -33670,7 +33671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
